--- a/Data y gráficos/PCA/Data nivel-var 2.xlsx
+++ b/Data y gráficos/PCA/Data nivel-var 2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/GABO/TESIS/Tesis-paper/Data y gráficos/PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C218FCD0-90FA-4207-BCAB-CB49FA84EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B763F19-353D-48FC-BB3C-0770DA11621E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C218FCD0-90FA-4207-BCAB-CB49FA84EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0609DAD-452E-4D94-9E79-69480965D2F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CDDADCB5-4BA0-43E2-B59F-550C90ECB0A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CDDADCB5-4BA0-43E2-B59F-550C90ECB0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Niveles" sheetId="1" r:id="rId1"/>
     <sheet name="Sin tendencia" sheetId="5" r:id="rId2"/>
     <sheet name="Notas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB33F4-2126-4B83-9A1A-8A093CAE25BC}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,15 +4178,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55A0A2F-6515-4BB5-B7C6-CE82029B471A}">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37164</v>
       </c>
@@ -4270,9 +4270,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37256</v>
       </c>
@@ -4315,9 +4314,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>37346</v>
       </c>
@@ -4360,9 +4358,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>37437</v>
       </c>
@@ -4405,9 +4402,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>37529</v>
       </c>
@@ -4450,9 +4446,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37621</v>
       </c>
@@ -4495,9 +4490,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37711</v>
       </c>
@@ -4540,9 +4534,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37802</v>
       </c>
@@ -4585,9 +4578,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37894</v>
       </c>
@@ -4630,9 +4622,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37986</v>
       </c>
@@ -4675,9 +4666,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>38077</v>
       </c>
@@ -4720,9 +4710,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>38168</v>
       </c>
@@ -4765,9 +4754,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>38260</v>
       </c>
@@ -4810,9 +4798,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>38352</v>
       </c>
@@ -4855,9 +4842,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>38442</v>
       </c>
@@ -4900,9 +4886,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>38533</v>
       </c>
@@ -4945,9 +4930,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>38625</v>
       </c>
@@ -4990,9 +4974,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>38717</v>
       </c>
@@ -5035,9 +5018,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38807</v>
       </c>
@@ -5080,9 +5062,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38898</v>
       </c>
@@ -5125,9 +5106,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38990</v>
       </c>
@@ -5170,9 +5150,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39082</v>
       </c>
@@ -5215,9 +5194,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39172</v>
       </c>
@@ -5260,9 +5238,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39263</v>
       </c>
@@ -5305,9 +5282,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>39355</v>
       </c>
@@ -5350,9 +5326,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>39447</v>
       </c>
@@ -5395,9 +5370,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>39538</v>
       </c>
@@ -5440,9 +5414,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>39629</v>
       </c>
@@ -5485,9 +5458,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>39721</v>
       </c>
@@ -5530,9 +5502,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>39813</v>
       </c>
@@ -5575,9 +5546,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>39903</v>
       </c>
@@ -5620,9 +5590,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>39994</v>
       </c>
@@ -5665,9 +5634,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>40086</v>
       </c>
@@ -5710,9 +5678,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>40178</v>
       </c>
@@ -5755,9 +5722,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40268</v>
       </c>
@@ -5800,9 +5766,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -5845,9 +5810,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>40451</v>
       </c>
@@ -5890,9 +5854,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40543</v>
       </c>
@@ -5935,9 +5898,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40633</v>
       </c>
@@ -5980,9 +5942,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40724</v>
       </c>
@@ -6025,9 +5986,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40816</v>
       </c>
@@ -6070,9 +6030,8 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40908</v>
       </c>
@@ -6115,9 +6074,8 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40999</v>
       </c>
@@ -6160,9 +6118,8 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41090</v>
       </c>
@@ -6205,9 +6162,8 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>41182</v>
       </c>
@@ -6250,9 +6206,8 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>41274</v>
       </c>
@@ -6295,9 +6250,8 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>41364</v>
       </c>
@@ -6340,9 +6294,8 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>41455</v>
       </c>
@@ -6385,9 +6338,8 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>41547</v>
       </c>
@@ -6430,9 +6382,8 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>41639</v>
       </c>
@@ -6475,9 +6426,8 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>41729</v>
       </c>
@@ -6520,9 +6470,8 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>41820</v>
       </c>
@@ -6565,9 +6514,8 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>41912</v>
       </c>
@@ -6610,9 +6558,8 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42004</v>
       </c>
@@ -6655,9 +6602,8 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42094</v>
       </c>
@@ -6700,9 +6646,8 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42185</v>
       </c>
@@ -6745,9 +6690,8 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42277</v>
       </c>
@@ -6790,9 +6734,8 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42369</v>
       </c>
@@ -6835,9 +6778,8 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42460</v>
       </c>
@@ -6880,9 +6822,8 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42551</v>
       </c>
@@ -6925,9 +6866,8 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42643</v>
       </c>
@@ -6970,9 +6910,8 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42735</v>
       </c>
@@ -7015,9 +6954,8 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42825</v>
       </c>
@@ -7060,9 +6998,8 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42916</v>
       </c>
@@ -7105,9 +7042,8 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43008</v>
       </c>
@@ -7150,9 +7086,8 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43100</v>
       </c>
@@ -7195,9 +7130,8 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43190</v>
       </c>
@@ -7240,9 +7174,8 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43281</v>
       </c>
@@ -7285,9 +7218,8 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43373</v>
       </c>
@@ -7330,9 +7262,8 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43465</v>
       </c>
@@ -7375,9 +7306,8 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43555</v>
       </c>
@@ -7420,9 +7350,8 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43646</v>
       </c>
@@ -7465,9 +7394,8 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43738</v>
       </c>
@@ -7510,9 +7438,8 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43830</v>
       </c>
@@ -7555,9 +7482,8 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43921</v>
       </c>
@@ -7600,9 +7526,8 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44012</v>
       </c>
@@ -7645,9 +7570,8 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44104</v>
       </c>
@@ -7690,9 +7614,8 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44196</v>
       </c>
@@ -7735,9 +7658,8 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44286</v>
       </c>
@@ -7780,9 +7702,8 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44377</v>
       </c>
@@ -7825,9 +7746,8 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44469</v>
       </c>
@@ -7870,9 +7790,8 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44561</v>
       </c>
@@ -7915,9 +7834,8 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44651</v>
       </c>
@@ -7960,7 +7878,6 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
